--- a/va_facility_data_2025-02-20/Mayfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mayfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mayfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mayfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Red447eb4cea846ec942c19c4ab8a67fc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc38298eacdf546bfa35d42ea114a597a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra86541371f2e47d9af7eba1b0052bfd0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R15230870992a42aa81ce821a4eeac22c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R541d85f3d9364151895c96225652773a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reb86bdc5c39b45ccab47612f64557382"/>
   </x:sheets>
 </x:workbook>
 </file>
